--- a/example.xlsx
+++ b/example.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作簿33" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>题号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="286">
   <si>
     <t>题目</t>
   </si>
@@ -38,24 +35,9 @@
     <t>选项B内容</t>
   </si>
   <si>
-    <t>选项C内容</t>
-  </si>
-  <si>
     <t>选项D内容</t>
   </si>
   <si>
-    <t>（生物）基因重组只发生在减数第一次分裂中期</t>
-  </si>
-  <si>
-    <t>错</t>
-  </si>
-  <si>
-    <t>随便</t>
-  </si>
-  <si>
-    <t>不知道</t>
-  </si>
-  <si>
     <t>正确选项</t>
   </si>
   <si>
@@ -74,107 +56,1277 @@
     <t>D长度</t>
   </si>
   <si>
-    <t>（物理）卢瑟福发现了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>枣糕模型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>原子核式模型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>质能方程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卢瑟福第一定律</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（化学）酚羟基一般情况下能与___mol溴水反应，生成___mol HBr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3, 3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3, 6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（语文）致仕的现代翻译</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回家守丧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孝敬父母</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒手不干</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（数学）三角形的重心是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外接圆圆心</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内切圆圆心</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>垂直平分线交点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入仕途</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三边中线交点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（英语）写信一般不用以下哪个词</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>First of all</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>appreciate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>look forward</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>How are you</t>
+    <t>器官</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>细胞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>念珠藻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺旋藻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C H O N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C H O N P S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C H O N S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C H O N Na</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNA病毒内</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宿主细胞的核糖体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNA病毒内的核糖体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>细胞间信息交流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>细胞间信息传递</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把细胞和外界环境分隔开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制物质进出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动运输</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由扩散</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胞吞胞吐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助扩散</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>液体分子的无规则运动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固体小颗粒的无规则运动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分子热运动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩散现象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KMnO4/H+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一水合氨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙酸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硫酸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10^-9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南极</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗洗睡吧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北纬30度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宿主细胞的细胞核</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B超检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊水检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基因诊断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>核磁共振</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆荚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>种皮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子叶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>果皮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>终止密码子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIV病毒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可转化为非晶体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有各向同性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是混合物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成不饱和烃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成最清洁的燃料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产物含硫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是物理反应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产物是纯净物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生氢气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以自发进行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在常温下进行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产量高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白化病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豌豆皱粒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>囊性纤维病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫叫综合症</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成最清洁的燃料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成刺激性气味气体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要空气参与反应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>康普顿效应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光的衍射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子显微镜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双缝实验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小球藻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内容</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双缩脲试剂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盐析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解离</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改变细胞膜通透性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与吡罗红混合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>啥都不用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>腺嘌呤核糖核苷酸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>腺嘌呤脱氧核苷酸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>腺嘌呤脱氧核苷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>腺嘌呤核糖核苷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>细胞膜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶绿体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>溶酶体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>细胞核</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳酸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上均会产生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10^-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不属于</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠菜叶下表皮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑藻叶片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洋葱根尖分生区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颤藻细胞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制片水解冲洗染色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水解冲洗染色制片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解离漂洗染色制片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制片解离漂洗染色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO2消耗量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO2产生速率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位时间内有机物积累量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>需氧型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分解者</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>厌氧型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分解者</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>需氧型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生产者</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>厌氧型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生产者</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高尔基体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基因的选择性表达</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>氨基酸的排列顺序不同</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNA序列不同</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNA碱基种类不同</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>核仁大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>细胞体积小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>细胞核体积大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对表面积增大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>糙面内质网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑面内质网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>细胞内游离的核糖体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纤维素酶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胶原蛋白酶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸馏水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taq酶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNA是主要的遗传物质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋白质不是遗传物质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S型菌中有某种转化因子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNA也是遗传物质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颤藻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10^-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10^-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能是金属</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>均为蛾眉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>均为峨眉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>峨眉/蛾眉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛾眉/峨眉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直于液面向外</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直于液面向内</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平行于液面切线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同材质不一样</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男&gt;女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女&gt;男</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男=女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大苏打碳酸钠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>海波</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>硫酸钠</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>芒硝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 硫酸铵</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚁酸 甲酸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高氯亚次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高亚氯次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超高亚次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超高氯次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是加成反应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可改变碳链长度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是NaOH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和肥皂的反应</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可产生饱和烃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直于地球向外喷气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跃迁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH3Cl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCHO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>环己烷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>溴苯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>氯仿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛酸辛酯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NaAlO2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NaHCO3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZnCl2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KClO3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaSO3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漂白粉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>射线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反应物接触面积</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>催化剂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反应物浓度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>单位时间内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产生量</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学科</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>语文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物没有以下生命系统结构层次的哪一个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下藻类中有叶绿体的是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般情况下，病毒由什么元素构成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNA病毒翻译的场所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>细胞膜的功能没有以下哪一种</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肾小管重吸收水的方式？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>布朗运动是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>布朗运动反映了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苯酚不能与下列哪种物质发生反应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1pF = ___ F （^为次方的意思）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果想让一个胖子的体检报告单漂亮一些，应该让他去哪里称体重</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测唐氏综合症应用什么方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下哪一种植物果实中的组织/器官属于下一代</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够被DNA酶水解的有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有关多晶体的描述，不正确的是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤的气化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤的汽化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤的干馏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石油的分馏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石油的裂解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下哪一种病是基因控制蛋白质的结构异常所导致的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体现了光的粒子性的有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x=tcosa, y=tsina (a为参数)在直角坐标系中是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x=tcosa, y=tsina (t为参数)在直角坐标系中是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硝化细菌的异化类型和在生态系统中的角色分别是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会破坏蛋白质肽键的有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用健那绿前需要</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>腺苷是___的缩写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由2层磷脂分子构成的细胞器有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般情况下，哺乳动物的无氧呼吸的第二阶段不会产生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>病毒属于生命系统的哪个层次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可作为观察叶绿体实验的最佳材料为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察口腔上皮细胞DNA、RNA的分布实验步骤是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么可以作为测量净光合速率的指标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血红蛋白和胰岛素的功能不同的根本原因是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>衰老的细胞有什么特征</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脂质主要在___上合成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动物细胞培养之前可用___处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肺炎双球菌的体外转化实验证明了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>众女嫉余之__兮/可以横绝__巅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>液体表面张力的方向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伴X染色体隐形遗传病在人群中的发病率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下化学试剂与俗称对应正确的是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HClO4 HClO3 HClO2 HClO 的化学名称的第一个字分别是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皂化反应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嫦娥9号要返回地球需要</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下物质在标况下是液体的是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下物质密度比水的大的有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下溶液直接蒸干可以得到对应溶质的是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下物质不溶于过量稀盐酸的有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数方程中θ=60°表示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改变以下某一个条件，对化学反应速率影响最大的是</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +1334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +1372,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -241,7 +1400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,6 +1411,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -302,10 +1462,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:L208" totalsRowShown="0">
-  <autoFilter ref="A1:L208"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:L189" totalsRowShown="0">
+  <autoFilter ref="A1:L189"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="题号"/>
+    <tableColumn id="1" name="学科"/>
     <tableColumn id="2" name="题目" dataDxfId="5"/>
     <tableColumn id="3" name="选项A内容"/>
     <tableColumn id="4" name="选项B内容"/>
@@ -595,9 +1755,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L208"/>
+  <dimension ref="A1:L189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -610,1454 +1772,2280 @@
   <sheetData>
     <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="G2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>36</v>
+      </c>
+      <c r="I2">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="F3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>22</v>
+      </c>
+      <c r="I3">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>6</v>
+      </c>
+      <c r="L3">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>16</v>
+      </c>
+      <c r="L5">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>26</v>
+      </c>
+      <c r="I6">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>14</v>
+      </c>
+      <c r="J6">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>22</v>
+      </c>
+      <c r="L6">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>22</v>
+      </c>
+      <c r="I7">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>22</v>
+      </c>
+      <c r="K8">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>14</v>
+      </c>
+      <c r="I9">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>29</v>
+      </c>
+      <c r="I11">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>58</v>
+      </c>
+      <c r="I12">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>26</v>
+      </c>
+      <c r="I13">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>41</v>
+      </c>
+      <c r="I14">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>19</v>
+      </c>
+      <c r="I15">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>28</v>
+      </c>
+      <c r="I16">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>12</v>
+      </c>
+      <c r="L17">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>12</v>
+      </c>
+      <c r="L18">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>16</v>
+      </c>
+      <c r="K19">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>18</v>
+      </c>
+      <c r="L19">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>12</v>
+      </c>
+      <c r="K20">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>12</v>
+      </c>
+      <c r="L20">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>12</v>
+      </c>
+      <c r="K21">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>12</v>
+      </c>
+      <c r="L21">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>46</v>
+      </c>
+      <c r="I22">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>10</v>
+      </c>
+      <c r="L22">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>8</v>
+      </c>
+      <c r="J23">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>8</v>
+      </c>
+      <c r="L23">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>42</v>
+      </c>
+      <c r="I24">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>42</v>
+      </c>
+      <c r="I25">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>44</v>
+      </c>
+      <c r="I26">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>12</v>
+      </c>
+      <c r="J26">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>12</v>
+      </c>
+      <c r="K26">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>12</v>
+      </c>
+      <c r="L26">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>20</v>
+      </c>
+      <c r="I27">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>10</v>
+      </c>
+      <c r="L27">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>16</v>
+      </c>
+      <c r="I28">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>16</v>
+      </c>
+      <c r="K28">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>12</v>
+      </c>
+      <c r="L28">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>15</v>
+      </c>
+      <c r="I29">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>16</v>
+      </c>
+      <c r="J29">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>16</v>
+      </c>
+      <c r="K29">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>14</v>
+      </c>
+      <c r="L29">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>27</v>
+      </c>
+      <c r="I30">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>6</v>
+      </c>
+      <c r="J30">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>6</v>
+      </c>
+      <c r="L30">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>48</v>
+      </c>
+      <c r="I31">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>26</v>
+      </c>
+      <c r="I32">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" t="s">
+        <v>132</v>
+      </c>
+      <c r="H33">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>32</v>
+      </c>
+      <c r="I33">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>12</v>
+      </c>
+      <c r="J33">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>8</v>
+      </c>
+      <c r="K33">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>14</v>
+      </c>
+      <c r="L33">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>40</v>
+      </c>
+      <c r="I34">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>16</v>
+      </c>
+      <c r="J34">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>16</v>
+      </c>
+      <c r="K34">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>16</v>
+      </c>
+      <c r="L34">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" t="s">
+        <v>128</v>
+      </c>
+      <c r="H35">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>32</v>
+      </c>
+      <c r="I35">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>18</v>
+      </c>
+      <c r="J35">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>9</v>
+      </c>
+      <c r="K35">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>11</v>
+      </c>
+      <c r="L35">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" t="s">
+        <v>149</v>
+      </c>
+      <c r="F36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>38</v>
+      </c>
+      <c r="I36">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>16</v>
+      </c>
+      <c r="J36">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>20</v>
+      </c>
+      <c r="K36">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>15</v>
+      </c>
+      <c r="L36">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" t="s">
+        <v>152</v>
+      </c>
+      <c r="F37" t="s">
+        <v>153</v>
+      </c>
+      <c r="G37" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>20</v>
+      </c>
+      <c r="I37">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>6</v>
+      </c>
+      <c r="J37">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>12</v>
+      </c>
+      <c r="L37">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" t="s">
+        <v>156</v>
+      </c>
+      <c r="F38" t="s">
+        <v>145</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>19</v>
+      </c>
+      <c r="I38">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>10</v>
+      </c>
+      <c r="K38">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>18</v>
+      </c>
+      <c r="L38">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" t="s">
+        <v>159</v>
+      </c>
+      <c r="F39" t="s">
+        <v>160</v>
+      </c>
+      <c r="G39" t="s">
+        <v>161</v>
+      </c>
+      <c r="H39">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>27</v>
+      </c>
+      <c r="I39">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>8</v>
+      </c>
+      <c r="J39">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>10</v>
+      </c>
+      <c r="K39">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>6</v>
+      </c>
+      <c r="L39">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D40" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" t="s">
+        <v>166</v>
+      </c>
+      <c r="F40" t="s">
+        <v>163</v>
+      </c>
+      <c r="G40" t="s">
+        <v>165</v>
+      </c>
+      <c r="H40">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>30</v>
+      </c>
+      <c r="I40">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>19</v>
+      </c>
+      <c r="J40">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>21</v>
+      </c>
+      <c r="K40">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>15</v>
+      </c>
+      <c r="L40">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F41" t="s">
+        <v>174</v>
+      </c>
+      <c r="G41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H41">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>27</v>
+      </c>
+      <c r="I41">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>8</v>
+      </c>
+      <c r="J41">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>8</v>
+      </c>
+      <c r="K41">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>9</v>
+      </c>
+      <c r="L41">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" t="s">
+        <v>176</v>
+      </c>
+      <c r="E42" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" t="s">
+        <v>179</v>
+      </c>
+      <c r="G42" t="s">
+        <v>180</v>
+      </c>
+      <c r="H42">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>18</v>
+      </c>
+      <c r="I42">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>14</v>
+      </c>
+      <c r="J42">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>14</v>
+      </c>
+      <c r="K42">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>14</v>
+      </c>
+      <c r="L42">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" t="s">
+        <v>182</v>
+      </c>
+      <c r="E43" t="s">
+        <v>183</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G43" t="s">
+        <v>184</v>
+      </c>
+      <c r="H43">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>35</v>
+      </c>
+      <c r="I43">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>5</v>
+      </c>
+      <c r="K43">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>5</v>
+      </c>
+      <c r="L43">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G44" t="s">
+        <v>175</v>
+      </c>
+      <c r="H44">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>30</v>
+      </c>
+      <c r="I44">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>12</v>
+      </c>
+      <c r="J44">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>11</v>
+      </c>
+      <c r="K44">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>11</v>
+      </c>
+      <c r="L44">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" t="s">
+        <v>190</v>
+      </c>
+      <c r="E45" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G45" t="s">
+        <v>184</v>
+      </c>
+      <c r="H45">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>49</v>
+      </c>
+      <c r="I45">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>8</v>
+      </c>
+      <c r="J45">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>8</v>
+      </c>
+      <c r="K45">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>8</v>
+      </c>
+      <c r="L45">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F46" t="s">
+        <v>196</v>
+      </c>
+      <c r="G46" t="s">
+        <v>180</v>
+      </c>
+      <c r="H46">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>18</v>
+      </c>
+      <c r="J46">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>10</v>
+      </c>
+      <c r="K46">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>14</v>
+      </c>
+      <c r="L46">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C47" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" t="s">
+        <v>198</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F47" t="s">
+        <v>200</v>
+      </c>
+      <c r="G47" t="s">
+        <v>161</v>
+      </c>
+      <c r="H47">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>21</v>
+      </c>
+      <c r="I47">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>18</v>
+      </c>
+      <c r="J47">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>4</v>
+      </c>
+      <c r="K47">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>4</v>
+      </c>
+      <c r="L47">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F48" t="s">
+        <v>203</v>
+      </c>
+      <c r="G48" t="s">
+        <v>175</v>
+      </c>
+      <c r="H48">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>26</v>
+      </c>
+      <c r="I48">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>5</v>
+      </c>
+      <c r="J48">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>4</v>
+      </c>
+      <c r="L48">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E49" t="s">
+        <v>206</v>
+      </c>
+      <c r="F49" t="s">
+        <v>208</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H49">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>24</v>
+      </c>
+      <c r="I49">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>4</v>
+      </c>
+      <c r="J49">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>6</v>
+      </c>
+      <c r="K49">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>4</v>
+      </c>
+      <c r="L49">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F50" t="s">
+        <v>212</v>
+      </c>
+      <c r="G50" t="s">
+        <v>184</v>
+      </c>
+      <c r="H50">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>36</v>
+      </c>
+      <c r="I50">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>6</v>
+      </c>
+      <c r="J50">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>6</v>
+      </c>
+      <c r="K50">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>5</v>
+      </c>
+      <c r="L50">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E51" t="s">
+        <v>215</v>
+      </c>
+      <c r="F51" t="s">
+        <v>216</v>
+      </c>
+      <c r="G51" t="s">
+        <v>180</v>
+      </c>
+      <c r="H51">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>28</v>
+      </c>
+      <c r="I51">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="L51">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>42</v>
-      </c>
-      <c r="I2">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+    </row>
+    <row r="52" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D52" t="s">
+        <v>218</v>
+      </c>
+      <c r="E52" t="s">
+        <v>219</v>
+      </c>
+      <c r="F52" t="s">
+        <v>220</v>
+      </c>
+      <c r="G52" t="s">
+        <v>180</v>
+      </c>
+      <c r="H52">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>21</v>
+      </c>
+      <c r="I52">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
         <v>2</v>
       </c>
-      <c r="J2">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+      <c r="K52">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>4</v>
+      </c>
+      <c r="L52">
+        <f>LENB(表2[[#This Row],[选项D内容]])</f>
         <v>2</v>
       </c>
-      <c r="K2">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+    </row>
+    <row r="53" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E53" t="s">
+        <v>224</v>
+      </c>
+      <c r="F53" t="s">
+        <v>223</v>
+      </c>
+      <c r="G53" t="s">
+        <v>175</v>
+      </c>
+      <c r="H53">
+        <f>LENB(表2[[#This Row],[题目]])</f>
+        <v>46</v>
+      </c>
+      <c r="I53">
+        <f>LENB(表2[[#This Row],[选项A内容]])</f>
         <v>4</v>
       </c>
-      <c r="L2">
+      <c r="J53">
+        <f>LENB(表2[[#This Row],[选项B内容]])</f>
+        <v>14</v>
+      </c>
+      <c r="K53">
+        <f>LENB(表2[[#This Row],[选项C内容]])</f>
+        <v>10</v>
+      </c>
+      <c r="L53">
         <f>LENB(表2[[#This Row],[选项D内容]])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>20</v>
-      </c>
-      <c r="I3">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>12</v>
-      </c>
-      <c r="K3">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>8</v>
-      </c>
-      <c r="L3">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>58</v>
-      </c>
-      <c r="I4">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>4</v>
-      </c>
-      <c r="K4">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>4</v>
-      </c>
-      <c r="L4">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>22</v>
-      </c>
-      <c r="I5">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>8</v>
-      </c>
-      <c r="J5">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>8</v>
-      </c>
-      <c r="K5">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>8</v>
-      </c>
-      <c r="L5">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>22</v>
-      </c>
-      <c r="I6">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>10</v>
-      </c>
-      <c r="K6">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>14</v>
-      </c>
-      <c r="L6">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>30</v>
-      </c>
-      <c r="I7">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>12</v>
-      </c>
-      <c r="J7">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>10</v>
-      </c>
-      <c r="K7">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>12</v>
-      </c>
-      <c r="L7">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="H9">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="H10">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="H11">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="H12">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="H13">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="H14">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="H15">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="H16">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="H17">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="H18">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="H19">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="H20">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="H21">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="H22">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="H23">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="H24">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="H25">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="H26">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="H27">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="H28">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="H29">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="H30">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="H31">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="H32">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="H33">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="H34">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="H35">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="H36">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="H37">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="H38">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="H39">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="H40">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="H41">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="H42">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="H43">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="H44">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="H45">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="H46">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="H47">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="H48">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="H49">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="H50">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="H51">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="H52">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="H53">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="54" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>53</v>
-      </c>
+      <c r="C54" s="4"/>
       <c r="H54">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2080,9 +4068,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>54</v>
-      </c>
+      <c r="C55" s="4"/>
       <c r="H55">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2106,8 +4092,9 @@
     </row>
     <row r="56" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>55</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C56" s="4"/>
       <c r="H56">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2131,8 +4118,9 @@
     </row>
     <row r="57" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>56</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C57" s="4"/>
       <c r="H57">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2156,8 +4144,9 @@
     </row>
     <row r="58" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>57</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C58" s="4"/>
       <c r="H58">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2181,8 +4170,9 @@
     </row>
     <row r="59" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>58</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C59" s="4"/>
       <c r="H59">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2206,8 +4196,9 @@
     </row>
     <row r="60" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>59</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C60" s="4"/>
       <c r="H60">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2231,8 +4222,9 @@
     </row>
     <row r="61" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>60</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C61" s="4"/>
       <c r="H61">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2256,8 +4248,9 @@
     </row>
     <row r="62" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>61</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C62" s="4"/>
       <c r="H62">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2281,8 +4274,9 @@
     </row>
     <row r="63" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>62</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C63" s="4"/>
       <c r="H63">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2306,8 +4300,9 @@
     </row>
     <row r="64" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>63</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C64" s="4"/>
       <c r="H64">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2331,8 +4326,9 @@
     </row>
     <row r="65" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>64</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C65" s="4"/>
       <c r="H65">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2356,8 +4352,9 @@
     </row>
     <row r="66" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>65</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C66" s="4"/>
       <c r="H66">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2381,8 +4378,9 @@
     </row>
     <row r="67" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>66</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C67" s="4"/>
       <c r="H67">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2406,8 +4404,9 @@
     </row>
     <row r="68" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>67</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C68" s="4"/>
       <c r="H68">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2431,8 +4430,9 @@
     </row>
     <row r="69" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>68</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C69" s="4"/>
       <c r="H69">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2456,8 +4456,9 @@
     </row>
     <row r="70" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>69</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C70" s="4"/>
       <c r="H70">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2481,8 +4482,9 @@
     </row>
     <row r="71" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>70</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C71" s="4"/>
       <c r="H71">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2506,8 +4508,9 @@
     </row>
     <row r="72" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>71</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C72" s="4"/>
       <c r="H72">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2531,8 +4534,9 @@
     </row>
     <row r="73" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>72</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C73" s="4"/>
       <c r="H73">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2556,8 +4560,9 @@
     </row>
     <row r="74" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>73</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C74" s="4"/>
       <c r="H74">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2581,8 +4586,9 @@
     </row>
     <row r="75" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>74</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C75" s="4"/>
       <c r="H75">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2606,8 +4612,9 @@
     </row>
     <row r="76" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>75</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C76" s="4"/>
       <c r="H76">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2631,8 +4638,9 @@
     </row>
     <row r="77" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>76</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C77" s="4"/>
       <c r="H77">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2656,8 +4664,9 @@
     </row>
     <row r="78" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>77</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C78" s="4"/>
       <c r="H78">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2681,8 +4690,9 @@
     </row>
     <row r="79" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>78</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C79" s="4"/>
       <c r="H79">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2706,8 +4716,9 @@
     </row>
     <row r="80" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>79</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C80" s="4"/>
       <c r="H80">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2731,8 +4742,9 @@
     </row>
     <row r="81" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>80</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C81" s="4"/>
       <c r="H81">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2756,8 +4768,9 @@
     </row>
     <row r="82" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>81</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C82" s="4"/>
       <c r="H82">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2781,8 +4794,9 @@
     </row>
     <row r="83" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>82</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C83" s="4"/>
       <c r="H83">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2806,8 +4820,9 @@
     </row>
     <row r="84" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>83</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C84" s="4"/>
       <c r="H84">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2831,8 +4846,9 @@
     </row>
     <row r="85" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>84</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C85" s="4"/>
       <c r="H85">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2856,8 +4872,9 @@
     </row>
     <row r="86" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>85</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C86" s="4"/>
       <c r="H86">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2881,8 +4898,9 @@
     </row>
     <row r="87" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>86</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C87" s="4"/>
       <c r="H87">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2906,8 +4924,9 @@
     </row>
     <row r="88" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>87</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C88" s="4"/>
       <c r="H88">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2931,8 +4950,9 @@
     </row>
     <row r="89" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>88</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C89" s="4"/>
       <c r="H89">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2956,8 +4976,9 @@
     </row>
     <row r="90" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>89</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C90" s="4"/>
       <c r="H90">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -2981,8 +5002,9 @@
     </row>
     <row r="91" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>90</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C91" s="4"/>
       <c r="H91">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3006,8 +5028,9 @@
     </row>
     <row r="92" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>91</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C92" s="4"/>
       <c r="H92">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3031,8 +5054,9 @@
     </row>
     <row r="93" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>92</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C93" s="4"/>
       <c r="H93">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3056,8 +5080,9 @@
     </row>
     <row r="94" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>93</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C94" s="4"/>
       <c r="H94">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3081,8 +5106,9 @@
     </row>
     <row r="95" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>94</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C95" s="4"/>
       <c r="H95">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3106,8 +5132,9 @@
     </row>
     <row r="96" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>95</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C96" s="4"/>
       <c r="H96">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3131,8 +5158,9 @@
     </row>
     <row r="97" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>96</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C97" s="4"/>
       <c r="H97">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3156,8 +5184,9 @@
     </row>
     <row r="98" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>97</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C98" s="4"/>
       <c r="H98">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3181,8 +5210,9 @@
     </row>
     <row r="99" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>98</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C99" s="4"/>
       <c r="H99">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3206,8 +5236,9 @@
     </row>
     <row r="100" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>99</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C100" s="4"/>
       <c r="H100">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3231,8 +5262,9 @@
     </row>
     <row r="101" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>100</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C101" s="4"/>
       <c r="H101">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3256,8 +5288,9 @@
     </row>
     <row r="102" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>101</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C102" s="4"/>
       <c r="H102">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3281,8 +5314,9 @@
     </row>
     <row r="103" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>102</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C103" s="4"/>
       <c r="H103">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3306,8 +5340,9 @@
     </row>
     <row r="104" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>103</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C104" s="4"/>
       <c r="H104">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3331,8 +5366,9 @@
     </row>
     <row r="105" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>104</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="C105" s="4"/>
       <c r="H105">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3356,8 +5392,9 @@
     </row>
     <row r="106" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>105</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C106" s="4"/>
       <c r="H106">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3381,8 +5418,9 @@
     </row>
     <row r="107" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>106</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C107" s="4"/>
       <c r="H107">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3406,8 +5444,9 @@
     </row>
     <row r="108" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>107</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C108" s="4"/>
       <c r="H108">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3431,8 +5470,9 @@
     </row>
     <row r="109" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>108</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C109" s="4"/>
       <c r="H109">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3456,8 +5496,9 @@
     </row>
     <row r="110" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>109</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C110" s="4"/>
       <c r="H110">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3481,8 +5522,9 @@
     </row>
     <row r="111" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>110</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C111" s="4"/>
       <c r="H111">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3506,8 +5548,9 @@
     </row>
     <row r="112" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>111</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C112" s="4"/>
       <c r="H112">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3531,8 +5574,9 @@
     </row>
     <row r="113" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>112</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C113" s="4"/>
       <c r="H113">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3556,8 +5600,9 @@
     </row>
     <row r="114" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>113</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C114" s="4"/>
       <c r="H114">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3581,8 +5626,9 @@
     </row>
     <row r="115" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>114</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C115" s="4"/>
       <c r="H115">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3606,8 +5652,9 @@
     </row>
     <row r="116" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>115</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C116" s="4"/>
       <c r="H116">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3631,8 +5678,9 @@
     </row>
     <row r="117" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>116</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C117" s="4"/>
       <c r="H117">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3656,8 +5704,9 @@
     </row>
     <row r="118" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>117</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C118" s="4"/>
       <c r="H118">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3681,8 +5730,9 @@
     </row>
     <row r="119" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>118</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C119" s="4"/>
       <c r="H119">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3706,8 +5756,9 @@
     </row>
     <row r="120" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>119</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C120" s="4"/>
       <c r="H120">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3731,8 +5782,9 @@
     </row>
     <row r="121" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>120</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C121" s="4"/>
       <c r="H121">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3756,8 +5808,9 @@
     </row>
     <row r="122" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>121</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C122" s="4"/>
       <c r="H122">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3781,8 +5834,9 @@
     </row>
     <row r="123" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>122</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C123" s="4"/>
       <c r="H123">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3806,8 +5860,9 @@
     </row>
     <row r="124" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>123</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C124" s="4"/>
       <c r="H124">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3831,8 +5886,9 @@
     </row>
     <row r="125" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>124</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C125" s="4"/>
       <c r="H125">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3856,8 +5912,9 @@
     </row>
     <row r="126" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>125</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C126" s="4"/>
       <c r="H126">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3881,8 +5938,9 @@
     </row>
     <row r="127" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>126</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C127" s="4"/>
       <c r="H127">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3906,8 +5964,9 @@
     </row>
     <row r="128" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>127</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C128" s="4"/>
       <c r="H128">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3931,8 +5990,9 @@
     </row>
     <row r="129" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>128</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C129" s="4"/>
       <c r="H129">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3956,8 +6016,9 @@
     </row>
     <row r="130" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>129</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C130" s="4"/>
       <c r="H130">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -3981,8 +6042,9 @@
     </row>
     <row r="131" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>130</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C131" s="4"/>
       <c r="H131">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4006,8 +6068,9 @@
     </row>
     <row r="132" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>131</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C132" s="4"/>
       <c r="H132">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4031,8 +6094,9 @@
     </row>
     <row r="133" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>132</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C133" s="4"/>
       <c r="H133">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4056,8 +6120,9 @@
     </row>
     <row r="134" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>133</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C134" s="4"/>
       <c r="H134">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4081,8 +6146,9 @@
     </row>
     <row r="135" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>134</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C135" s="4"/>
       <c r="H135">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4106,8 +6172,9 @@
     </row>
     <row r="136" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>135</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C136" s="4"/>
       <c r="H136">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4131,8 +6198,9 @@
     </row>
     <row r="137" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>136</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C137" s="4"/>
       <c r="H137">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4156,8 +6224,9 @@
     </row>
     <row r="138" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>137</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C138" s="4"/>
       <c r="H138">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4181,8 +6250,9 @@
     </row>
     <row r="139" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>138</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C139" s="4"/>
       <c r="H139">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4206,8 +6276,9 @@
     </row>
     <row r="140" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>139</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C140" s="4"/>
       <c r="H140">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4231,8 +6302,9 @@
     </row>
     <row r="141" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>140</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C141" s="4"/>
       <c r="H141">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4256,8 +6328,9 @@
     </row>
     <row r="142" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>141</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C142" s="4"/>
       <c r="H142">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4281,8 +6354,9 @@
     </row>
     <row r="143" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>142</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C143" s="4"/>
       <c r="H143">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4306,8 +6380,9 @@
     </row>
     <row r="144" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>143</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C144" s="4"/>
       <c r="H144">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4331,8 +6406,9 @@
     </row>
     <row r="145" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>144</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C145" s="4"/>
       <c r="H145">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4356,8 +6432,9 @@
     </row>
     <row r="146" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>145</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C146" s="4"/>
       <c r="H146">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4381,8 +6458,9 @@
     </row>
     <row r="147" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>146</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C147" s="4"/>
       <c r="H147">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4406,8 +6484,9 @@
     </row>
     <row r="148" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>147</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C148" s="4"/>
       <c r="H148">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4431,8 +6510,9 @@
     </row>
     <row r="149" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>148</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C149" s="4"/>
       <c r="H149">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4456,8 +6536,9 @@
     </row>
     <row r="150" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>149</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C150" s="4"/>
       <c r="H150">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4481,8 +6562,9 @@
     </row>
     <row r="151" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>150</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C151" s="4"/>
       <c r="H151">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4506,8 +6588,9 @@
     </row>
     <row r="152" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>151</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C152" s="4"/>
       <c r="H152">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4531,8 +6614,9 @@
     </row>
     <row r="153" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>152</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C153" s="4"/>
       <c r="H153">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4556,8 +6640,9 @@
     </row>
     <row r="154" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>153</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C154" s="4"/>
       <c r="H154">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4581,8 +6666,9 @@
     </row>
     <row r="155" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>154</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C155" s="4"/>
       <c r="H155">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4606,8 +6692,9 @@
     </row>
     <row r="156" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>155</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C156" s="4"/>
       <c r="H156">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4631,8 +6718,9 @@
     </row>
     <row r="157" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>156</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C157" s="4"/>
       <c r="H157">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4656,8 +6744,9 @@
     </row>
     <row r="158" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>157</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C158" s="4"/>
       <c r="H158">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4681,8 +6770,9 @@
     </row>
     <row r="159" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>158</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C159" s="4"/>
       <c r="H159">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4706,8 +6796,9 @@
     </row>
     <row r="160" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>159</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C160" s="4"/>
       <c r="H160">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4731,8 +6822,9 @@
     </row>
     <row r="161" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>160</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C161" s="4"/>
       <c r="H161">
         <f>LENB(表2[[#This Row],[题目]])</f>
         <v>0</v>
@@ -4756,7 +6848,7 @@
     </row>
     <row r="162" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="H162">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -4781,7 +6873,7 @@
     </row>
     <row r="163" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="H163">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -4806,7 +6898,7 @@
     </row>
     <row r="164" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="H164">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -4831,7 +6923,7 @@
     </row>
     <row r="165" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="H165">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -4856,7 +6948,7 @@
     </row>
     <row r="166" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="H166">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -4881,7 +6973,7 @@
     </row>
     <row r="167" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="H167">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -4906,7 +6998,7 @@
     </row>
     <row r="168" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="H168">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -4931,7 +7023,7 @@
     </row>
     <row r="169" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H169">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -4956,7 +7048,7 @@
     </row>
     <row r="170" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="H170">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -4981,7 +7073,7 @@
     </row>
     <row r="171" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="H171">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -5006,7 +7098,7 @@
     </row>
     <row r="172" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="H172">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -5031,7 +7123,7 @@
     </row>
     <row r="173" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="H173">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -5056,7 +7148,7 @@
     </row>
     <row r="174" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="H174">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -5081,7 +7173,7 @@
     </row>
     <row r="175" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="H175">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -5106,7 +7198,7 @@
     </row>
     <row r="176" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="H176">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -5131,7 +7223,7 @@
     </row>
     <row r="177" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="H177">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -5156,7 +7248,7 @@
     </row>
     <row r="178" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="H178">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -5181,7 +7273,7 @@
     </row>
     <row r="179" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="H179">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -5206,7 +7298,7 @@
     </row>
     <row r="180" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="H180">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -5231,7 +7323,7 @@
     </row>
     <row r="181" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="H181">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -5256,7 +7348,7 @@
     </row>
     <row r="182" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="H182">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -5281,7 +7373,7 @@
     </row>
     <row r="183" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="H183">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -5306,7 +7398,7 @@
     </row>
     <row r="184" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="H184">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -5331,7 +7423,7 @@
     </row>
     <row r="185" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="H185">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -5356,7 +7448,7 @@
     </row>
     <row r="186" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H186">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -5381,7 +7473,7 @@
     </row>
     <row r="187" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="H187">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -5406,7 +7498,7 @@
     </row>
     <row r="188" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="H188">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -5431,7 +7523,7 @@
     </row>
     <row r="189" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="H189">
         <f>LENB(表2[[#This Row],[题目]])</f>
@@ -5454,486 +7546,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190">
-        <v>189</v>
-      </c>
-      <c r="H190">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I190">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J190">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K190">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L190">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191">
-        <v>190</v>
-      </c>
-      <c r="H191">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I191">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J191">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K191">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L191">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192">
-        <v>191</v>
-      </c>
-      <c r="H192">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I192">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J192">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K192">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L192">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193">
-        <v>192</v>
-      </c>
-      <c r="H193">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I193">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J193">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K193">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L193">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194">
-        <v>193</v>
-      </c>
-      <c r="H194">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I194">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J194">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K194">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L194">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195">
-        <v>194</v>
-      </c>
-      <c r="H195">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I195">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J195">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K195">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L195">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196">
-        <v>195</v>
-      </c>
-      <c r="H196">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I196">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J196">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K196">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L196">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197">
-        <v>196</v>
-      </c>
-      <c r="H197">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I197">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J197">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K197">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L197">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198">
-        <v>197</v>
-      </c>
-      <c r="H198">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I198">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J198">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K198">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L198">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199">
-        <v>198</v>
-      </c>
-      <c r="H199">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I199">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J199">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K199">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L199">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200">
-        <v>199</v>
-      </c>
-      <c r="H200">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I200">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J200">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K200">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L200">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201">
-        <v>200</v>
-      </c>
-      <c r="H201">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I201">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J201">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K201">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L201">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202">
-        <v>201</v>
-      </c>
-      <c r="H202">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I202">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J202">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K202">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L202">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203">
-        <v>202</v>
-      </c>
-      <c r="H203">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I203">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J203">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K203">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L203">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204">
-        <v>203</v>
-      </c>
-      <c r="H204">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I204">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J204">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K204">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L204">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205">
-        <v>204</v>
-      </c>
-      <c r="H205">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I205">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J205">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K205">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L205">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206">
-        <v>205</v>
-      </c>
-      <c r="H206">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I206">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J206">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K206">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L206">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207">
-        <v>206</v>
-      </c>
-      <c r="H207">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I207">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J207">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K207">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L207">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H208">
-        <f>LENB(表2[[#This Row],[题目]])</f>
-        <v>0</v>
-      </c>
-      <c r="I208">
-        <f>LENB(表2[[#This Row],[选项A内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="J208">
-        <f>LENB(表2[[#This Row],[选项B内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="K208">
-        <f>LENB(表2[[#This Row],[选项C内容]])</f>
-        <v>0</v>
-      </c>
-      <c r="L208">
-        <f>LENB(表2[[#This Row],[选项D内容]])</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="超过长度" error="&gt;16字节" promptTitle="输入选项内容" prompt="最大16个字节" sqref="C1:F1048576">
-      <formula1>AND(LENB(C1)&lt;17)</formula1>
+  <dataValidations xWindow="545" yWindow="750" count="5">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="超出限制" error="&gt;204字节" promptTitle="输入题目" prompt="最大204字节" sqref="B1 B190:B1048576">
+      <formula1>AND(LENB(B1)&lt;205)</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="超出限制" error="&gt;204字节" promptTitle="输入题目" prompt="最大204字节" sqref="B1:B1048576">
-      <formula1>AND(LENB(B1)&lt;205)</formula1>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="超出限制" error="&gt;200字节" promptTitle="输入题目" prompt="最大200字节" sqref="B2:B4 B6:B189">
+      <formula1>AND(LENB(B2)&lt;=200)</formula1>
+    </dataValidation>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F36 C36:D36 C37:F39 C40 E40:F40 C41:F45 C46:E47 C48:F1048576 C1:F35">
+      <formula1>AND(LENB(C1)&lt;=24)</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
